--- a/data/trans_orig/CONS_DIA-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/CONS_DIA-Estudios-trans_orig.xlsx
@@ -545,7 +545,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para la diabetes en País Vasco</t>
+          <t>Consumo de medicamentos para la diabetes en País Vasco (tasa de respuesta: 99,45%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2156,7 +2156,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para la diabetes en Andalucia</t>
+          <t>Consumo de medicamentos para la diabetes en Andalucia (tasa de respuesta: 99,9%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3767,7 +3767,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para la diabetes en C.Valenciana</t>
+          <t>Consumo de medicamentos para la diabetes en C.Valenciana (tasa de respuesta: 99,76%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/CONS_DIA-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/CONS_DIA-Estudios-trans_orig.xlsx
@@ -735,32 +735,32 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>13753</t>
+          <t>12881</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>10952</t>
+          <t>10413</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>17057</t>
+          <t>15820</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>15,62%</t>
+          <t>15,61%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>12,44%</t>
+          <t>12,62%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>19,37%</t>
+          <t>19,17%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -770,32 +770,32 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>17138</t>
+          <t>14907</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>13781</t>
+          <t>12135</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>20720</t>
+          <t>18318</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>13,42%</t>
+          <t>12,27%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>10,79%</t>
+          <t>9,99%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>16,22%</t>
+          <t>15,08%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -805,32 +805,32 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>30891</t>
+          <t>27788</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>26443</t>
+          <t>24059</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>35698</t>
+          <t>32273</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>14,31%</t>
+          <t>13,62%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>12,25%</t>
+          <t>11,79%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>16,54%</t>
+          <t>15,82%</t>
         </is>
       </c>
     </row>
@@ -848,32 +848,32 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>74311</t>
+          <t>69661</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>71007</t>
+          <t>66722</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>77112</t>
+          <t>72129</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>84,38%</t>
+          <t>84,39%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>80,63%</t>
+          <t>80,83%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>87,56%</t>
+          <t>87,38%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -883,32 +883,32 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>110606</t>
+          <t>106545</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>107024</t>
+          <t>103134</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>113963</t>
+          <t>109317</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>86,58%</t>
+          <t>87,73%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>83,78%</t>
+          <t>84,92%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>89,21%</t>
+          <t>90,01%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -918,32 +918,32 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>184918</t>
+          <t>176206</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>180111</t>
+          <t>171721</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>189366</t>
+          <t>179935</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>85,69%</t>
+          <t>86,38%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>83,46%</t>
+          <t>84,18%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>87,75%</t>
+          <t>88,21%</t>
         </is>
       </c>
     </row>
@@ -961,17 +961,17 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>88064</t>
+          <t>82542</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>88064</t>
+          <t>82542</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>88064</t>
+          <t>82542</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -996,17 +996,17 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>127744</t>
+          <t>121452</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>127744</t>
+          <t>121452</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>127744</t>
+          <t>121452</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1031,17 +1031,17 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>215809</t>
+          <t>203994</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>215809</t>
+          <t>203994</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>215809</t>
+          <t>203994</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1078,32 +1078,32 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>35344</t>
+          <t>34332</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>30125</t>
+          <t>29575</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>40880</t>
+          <t>39476</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,79%</t>
+          <t>7,44%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>6,64%</t>
+          <t>6,41%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>9,01%</t>
+          <t>8,55%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1113,32 +1113,32 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>17207</t>
+          <t>17018</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>13886</t>
+          <t>13637</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>21164</t>
+          <t>20673</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,99%</t>
+          <t>3,83%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>3,22%</t>
+          <t>3,07%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>4,9%</t>
+          <t>4,65%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -1148,32 +1148,32 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>52551</t>
+          <t>51350</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>46587</t>
+          <t>45411</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>59057</t>
+          <t>57677</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>5,94%</t>
+          <t>5,67%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>5,26%</t>
+          <t>5,01%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>6,67%</t>
+          <t>6,37%</t>
         </is>
       </c>
     </row>
@@ -1191,32 +1191,32 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>418147</t>
+          <t>427347</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>412611</t>
+          <t>422203</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>423366</t>
+          <t>432104</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>92,21%</t>
+          <t>92,56%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>90,99%</t>
+          <t>91,45%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>93,36%</t>
+          <t>93,59%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1226,32 +1226,32 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>414595</t>
+          <t>427339</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>410638</t>
+          <t>423684</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>417916</t>
+          <t>430720</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>96,01%</t>
+          <t>96,17%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>95,1%</t>
+          <t>95,35%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>96,78%</t>
+          <t>96,93%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1261,32 +1261,32 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>832742</t>
+          <t>854685</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>826236</t>
+          <t>848358</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>838706</t>
+          <t>860624</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>94,06%</t>
+          <t>94,33%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>93,33%</t>
+          <t>93,63%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>94,74%</t>
+          <t>94,99%</t>
         </is>
       </c>
     </row>
@@ -1304,17 +1304,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>453491</t>
+          <t>461679</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>453491</t>
+          <t>461679</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>453491</t>
+          <t>461679</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1339,17 +1339,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>431802</t>
+          <t>444357</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>431802</t>
+          <t>444357</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>431802</t>
+          <t>444357</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1374,17 +1374,17 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>885293</t>
+          <t>906035</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>885293</t>
+          <t>906035</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>885293</t>
+          <t>906035</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1421,32 +1421,32 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3942</t>
+          <t>4578</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2608</t>
+          <t>2879</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5868</t>
+          <t>7052</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>2,6%</t>
+          <t>2,61%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,72%</t>
+          <t>1,64%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>3,87%</t>
+          <t>4,02%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1456,32 +1456,32 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>3095</t>
+          <t>3289</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>1887</t>
+          <t>1941</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>5226</t>
+          <t>5629</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>1,59%</t>
+          <t>1,44%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>0,97%</t>
+          <t>0,85%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>2,69%</t>
+          <t>2,47%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1491,32 +1491,32 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>7037</t>
+          <t>7867</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>4920</t>
+          <t>5432</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>9580</t>
+          <t>10989</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>2,03%</t>
+          <t>1,95%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>1,42%</t>
+          <t>1,35%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>2,77%</t>
+          <t>2,72%</t>
         </is>
       </c>
     </row>
@@ -1534,32 +1534,32 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>147683</t>
+          <t>170983</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>145757</t>
+          <t>168509</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>149017</t>
+          <t>172682</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>97,4%</t>
+          <t>97,39%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>96,13%</t>
+          <t>95,98%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>98,28%</t>
+          <t>98,36%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1569,32 +1569,32 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>191142</t>
+          <t>224705</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>189011</t>
+          <t>222365</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>192350</t>
+          <t>226053</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>98,41%</t>
+          <t>98,56%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>97,31%</t>
+          <t>97,53%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>99,03%</t>
+          <t>99,15%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -1604,32 +1604,32 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>338826</t>
+          <t>395688</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>336283</t>
+          <t>392566</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>340943</t>
+          <t>398123</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>97,97%</t>
+          <t>98,05%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>97,23%</t>
+          <t>97,28%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>98,58%</t>
+          <t>98,65%</t>
         </is>
       </c>
     </row>
@@ -1647,17 +1647,17 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>151625</t>
+          <t>175561</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>151625</t>
+          <t>175561</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>151625</t>
+          <t>175561</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1682,17 +1682,17 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>194237</t>
+          <t>227994</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>194237</t>
+          <t>227994</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>194237</t>
+          <t>227994</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1717,17 +1717,17 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>345863</t>
+          <t>403555</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>345863</t>
+          <t>403555</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>345863</t>
+          <t>403555</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1764,32 +1764,32 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>53039</t>
+          <t>51791</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>46978</t>
+          <t>46501</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>59467</t>
+          <t>59136</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>7,65%</t>
+          <t>7,2%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>6,78%</t>
+          <t>6,46%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>8,58%</t>
+          <t>8,22%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1799,32 +1799,32 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>37441</t>
+          <t>35214</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>32341</t>
+          <t>30593</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>43122</t>
+          <t>40170</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>4,97%</t>
+          <t>4,44%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>4,29%</t>
+          <t>3,85%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>5,72%</t>
+          <t>5,06%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1834,32 +1834,32 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>90480</t>
+          <t>87004</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>82454</t>
+          <t>79322</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>99032</t>
+          <t>95387</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>6,25%</t>
+          <t>5,75%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>5,7%</t>
+          <t>5,24%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>6,84%</t>
+          <t>6,3%</t>
         </is>
       </c>
     </row>
@@ -1877,32 +1877,32 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>640142</t>
+          <t>667990</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>633714</t>
+          <t>660645</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>646203</t>
+          <t>673280</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>92,35%</t>
+          <t>92,8%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>91,42%</t>
+          <t>91,78%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>93,22%</t>
+          <t>93,54%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1912,32 +1912,32 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>716343</t>
+          <t>758589</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>710662</t>
+          <t>753633</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>721443</t>
+          <t>763210</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>95,03%</t>
+          <t>95,56%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>94,28%</t>
+          <t>94,94%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>95,71%</t>
+          <t>96,15%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1947,32 +1947,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>1356485</t>
+          <t>1426580</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>1347933</t>
+          <t>1418197</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>1364511</t>
+          <t>1434262</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>93,75%</t>
+          <t>94,25%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>93,16%</t>
+          <t>93,7%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>94,3%</t>
+          <t>94,76%</t>
         </is>
       </c>
     </row>
@@ -1990,17 +1990,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>693181</t>
+          <t>719781</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>693181</t>
+          <t>719781</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>693181</t>
+          <t>719781</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2025,17 +2025,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>753784</t>
+          <t>793803</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>753784</t>
+          <t>793803</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>753784</t>
+          <t>793803</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2060,17 +2060,17 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>1446965</t>
+          <t>1513584</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>1446965</t>
+          <t>1513584</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>1446965</t>
+          <t>1513584</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2351,12 +2351,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>25028</t>
+          <t>24786</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>42992</t>
+          <t>43544</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -2366,12 +2366,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>10,96%</t>
+          <t>10,86%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>18,83%</t>
+          <t>19,07%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -2386,12 +2386,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>63897</t>
+          <t>63171</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>86154</t>
+          <t>86148</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -2401,12 +2401,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>16,17%</t>
+          <t>15,99%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>21,81%</t>
+          <t>21,8%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -2421,12 +2421,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>92879</t>
+          <t>92868</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>122343</t>
+          <t>121518</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -2441,7 +2441,7 @@
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>19,63%</t>
+          <t>19,49%</t>
         </is>
       </c>
     </row>
@@ -2464,12 +2464,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>185305</t>
+          <t>184753</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>203269</t>
+          <t>203511</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -2479,12 +2479,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>81,17%</t>
+          <t>80,93%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>89,04%</t>
+          <t>89,14%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -2499,12 +2499,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>308936</t>
+          <t>308942</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>331193</t>
+          <t>331919</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -2514,12 +2514,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>78,19%</t>
+          <t>78,2%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>83,83%</t>
+          <t>84,01%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -2534,12 +2534,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>501044</t>
+          <t>501869</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>530508</t>
+          <t>530519</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -2549,7 +2549,7 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>80,37%</t>
+          <t>80,51%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
@@ -2694,12 +2694,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>46648</t>
+          <t>48702</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>109022</t>
+          <t>110067</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -2709,12 +2709,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,31%</t>
+          <t>3,46%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>7,74%</t>
+          <t>7,81%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -2729,12 +2729,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>27736</t>
+          <t>28294</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>59103</t>
+          <t>58127</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -2744,12 +2744,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>2,0%</t>
+          <t>2,04%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>4,26%</t>
+          <t>4,19%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -2764,12 +2764,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>90325</t>
+          <t>88094</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>161618</t>
+          <t>160102</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -2779,12 +2779,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>3,23%</t>
+          <t>3,15%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>5,78%</t>
+          <t>5,73%</t>
         </is>
       </c>
     </row>
@@ -2807,12 +2807,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1300371</t>
+          <t>1299326</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1362745</t>
+          <t>1360691</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -2822,12 +2822,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>92,26%</t>
+          <t>92,19%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>96,69%</t>
+          <t>96,54%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -2842,12 +2842,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>1326708</t>
+          <t>1327684</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>1358075</t>
+          <t>1357517</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -2857,12 +2857,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>95,74%</t>
+          <t>95,81%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>98,0%</t>
+          <t>97,96%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -2877,12 +2877,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>2633586</t>
+          <t>2635102</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>2704879</t>
+          <t>2707110</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -2892,12 +2892,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>94,22%</t>
+          <t>94,27%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>96,77%</t>
+          <t>96,85%</t>
         </is>
       </c>
     </row>
@@ -3037,12 +3037,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>18777</t>
+          <t>19427</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>37383</t>
+          <t>39477</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -3052,12 +3052,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>4,08%</t>
+          <t>4,23%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>8,13%</t>
+          <t>8,59%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -3072,12 +3072,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>7580</t>
+          <t>7405</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>18002</t>
+          <t>18326</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -3087,12 +3087,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>1,71%</t>
+          <t>1,67%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>4,06%</t>
+          <t>4,13%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -3107,12 +3107,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>30061</t>
+          <t>29405</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>50882</t>
+          <t>50756</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -3122,12 +3122,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>3,33%</t>
+          <t>3,26%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>5,63%</t>
+          <t>5,62%</t>
         </is>
       </c>
     </row>
@@ -3150,12 +3150,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>422418</t>
+          <t>420324</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>441024</t>
+          <t>440374</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -3165,12 +3165,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>91,87%</t>
+          <t>91,41%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>95,92%</t>
+          <t>95,77%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -3185,12 +3185,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>425372</t>
+          <t>425048</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>435794</t>
+          <t>435969</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -3200,12 +3200,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>95,94%</t>
+          <t>95,87%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>98,29%</t>
+          <t>98,33%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -3220,12 +3220,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>852293</t>
+          <t>852419</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>873114</t>
+          <t>873770</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -3235,12 +3235,12 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>94,37%</t>
+          <t>94,38%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>96,67%</t>
+          <t>96,74%</t>
         </is>
       </c>
     </row>
@@ -3380,12 +3380,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>96859</t>
+          <t>95588</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>174803</t>
+          <t>174254</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -3395,12 +3395,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,62%</t>
+          <t>4,56%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>8,33%</t>
+          <t>8,31%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -3415,12 +3415,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>94437</t>
+          <t>98522</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>154293</t>
+          <t>153891</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -3430,12 +3430,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>4,25%</t>
+          <t>4,43%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>6,94%</t>
+          <t>6,92%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -3450,12 +3450,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>215971</t>
+          <t>221712</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>319283</t>
+          <t>315558</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -3465,12 +3465,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>5,0%</t>
+          <t>5,13%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>7,39%</t>
+          <t>7,3%</t>
         </is>
       </c>
     </row>
@@ -3493,12 +3493,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1922688</t>
+          <t>1923237</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>2000632</t>
+          <t>2001903</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -3508,12 +3508,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>91,67%</t>
+          <t>91,69%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>95,38%</t>
+          <t>95,44%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -3528,12 +3528,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>2069983</t>
+          <t>2070385</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>2129839</t>
+          <t>2125754</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -3543,12 +3543,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>93,06%</t>
+          <t>93,08%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>95,75%</t>
+          <t>95,57%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -3563,12 +3563,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>4002483</t>
+          <t>4006208</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>4105795</t>
+          <t>4100054</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -3578,12 +3578,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>92,61%</t>
+          <t>92,7%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>95,0%</t>
+          <t>94,87%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/CONS_DIA-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/CONS_DIA-Estudios-trans_orig.xlsx
@@ -7,9 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -545,7 +545,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para la diabetes en País Vasco (tasa de respuesta: 99,45%)</t>
+          <t>Consumo de medicamentos para la diabetes en Andalucia (tasa de respuesta: 99,9%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -730,107 +730,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>52</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>12881</t>
+          <t>37145</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>10413</t>
+          <t>27695</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>15820</t>
+          <t>47984</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>15,61%</t>
+          <t>14,54%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>12,62%</t>
+          <t>10,84%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>19,17%</t>
+          <t>18,79%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>140</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>14907</t>
+          <t>80146</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>12135</t>
+          <t>68683</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>18318</t>
+          <t>93426</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>12,27%</t>
+          <t>18,53%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>9,99%</t>
+          <t>15,88%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>15,08%</t>
+          <t>21,6%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>192</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>27788</t>
+          <t>117292</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>24059</t>
+          <t>102361</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>32273</t>
+          <t>132704</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>13,62%</t>
+          <t>17,05%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>11,79%</t>
+          <t>14,88%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>15,82%</t>
+          <t>19,29%</t>
         </is>
       </c>
     </row>
@@ -843,107 +843,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>425</t>
+          <t>238</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>69661</t>
+          <t>218247</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>66722</t>
+          <t>207408</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>72129</t>
+          <t>227697</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>84,39%</t>
+          <t>85,46%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>80,83%</t>
+          <t>81,21%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>87,38%</t>
+          <t>89,16%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>658</t>
+          <t>555</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>106545</t>
+          <t>352451</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>103134</t>
+          <t>339171</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>109317</t>
+          <t>363914</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>87,73%</t>
+          <t>81,47%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>84,92%</t>
+          <t>78,4%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>90,01%</t>
+          <t>84,12%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>1083</t>
+          <t>793</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>176206</t>
+          <t>570697</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>171721</t>
+          <t>555285</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>179935</t>
+          <t>585628</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>86,38%</t>
+          <t>82,95%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>84,18%</t>
+          <t>80,71%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>88,21%</t>
+          <t>85,12%</t>
         </is>
       </c>
     </row>
@@ -956,22 +956,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>503</t>
+          <t>290</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>82542</t>
+          <t>255392</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>82542</t>
+          <t>255392</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>82542</t>
+          <t>255392</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -991,22 +991,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>755</t>
+          <t>695</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>121452</t>
+          <t>432597</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>121452</t>
+          <t>432597</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>121452</t>
+          <t>432597</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1026,22 +1026,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>1258</t>
+          <t>985</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>203994</t>
+          <t>687989</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>203994</t>
+          <t>687989</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>203994</t>
+          <t>687989</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1073,107 +1073,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>107</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>34332</t>
+          <t>91468</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>29575</t>
+          <t>74780</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>39476</t>
+          <t>109146</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,44%</t>
+          <t>7,1%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>6,41%</t>
+          <t>5,81%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,55%</t>
+          <t>8,48%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>84</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>17018</t>
+          <t>49527</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>13637</t>
+          <t>39414</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>20673</t>
+          <t>61029</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,83%</t>
+          <t>3,9%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>3,07%</t>
+          <t>3,1%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>4,65%</t>
+          <t>4,8%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>309</t>
+          <t>191</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>51350</t>
+          <t>140994</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>45411</t>
+          <t>121951</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>57677</t>
+          <t>165811</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>5,67%</t>
+          <t>5,51%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>5,01%</t>
+          <t>4,77%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>6,37%</t>
+          <t>6,48%</t>
         </is>
       </c>
     </row>
@@ -1186,107 +1186,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2441</t>
+          <t>1004</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>427347</t>
+          <t>1196219</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>422203</t>
+          <t>1178541</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>432104</t>
+          <t>1212907</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>92,56%</t>
+          <t>92,9%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>91,45%</t>
+          <t>91,52%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>93,59%</t>
+          <t>94,19%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>2400</t>
+          <t>1555</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>427339</t>
+          <t>1221214</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>423684</t>
+          <t>1209712</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>430720</t>
+          <t>1231327</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>96,17%</t>
+          <t>96,1%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>95,35%</t>
+          <t>95,2%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>96,93%</t>
+          <t>96,9%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>4841</t>
+          <t>2559</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>854685</t>
+          <t>2417434</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>848358</t>
+          <t>2392617</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>860624</t>
+          <t>2436477</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>94,33%</t>
+          <t>94,49%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>93,63%</t>
+          <t>93,52%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>94,99%</t>
+          <t>95,23%</t>
         </is>
       </c>
     </row>
@@ -1299,22 +1299,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2647</t>
+          <t>1111</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>461679</t>
+          <t>1287687</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>461679</t>
+          <t>1287687</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>461679</t>
+          <t>1287687</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1334,22 +1334,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2503</t>
+          <t>1639</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>444357</t>
+          <t>1270741</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>444357</t>
+          <t>1270741</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>444357</t>
+          <t>1270741</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1369,22 +1369,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>5150</t>
+          <t>2750</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>906035</t>
+          <t>2558428</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>906035</t>
+          <t>2558428</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>906035</t>
+          <t>2558428</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1416,107 +1416,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>37</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4578</t>
+          <t>29285</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2879</t>
+          <t>21349</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>7052</t>
+          <t>41510</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>2,61%</t>
+          <t>5,74%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,64%</t>
+          <t>4,19%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>4,02%</t>
+          <t>8,14%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>22</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>3289</t>
+          <t>13497</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>1941</t>
+          <t>8760</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>5629</t>
+          <t>20886</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>1,44%</t>
+          <t>2,72%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>0,85%</t>
+          <t>1,77%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>2,47%</t>
+          <t>4,21%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>59</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>7867</t>
+          <t>42782</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>5432</t>
+          <t>32647</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>10989</t>
+          <t>55596</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>1,95%</t>
+          <t>4,25%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>1,35%</t>
+          <t>3,25%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>2,72%</t>
+          <t>5,53%</t>
         </is>
       </c>
     </row>
@@ -1529,107 +1529,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>883</t>
+          <t>450</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>170983</t>
+          <t>480594</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>168509</t>
+          <t>468369</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>172682</t>
+          <t>488530</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>97,39%</t>
+          <t>94,26%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>95,98%</t>
+          <t>91,86%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>98,36%</t>
+          <t>95,81%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1181</t>
+          <t>644</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>224705</t>
+          <t>482409</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>222365</t>
+          <t>475020</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>226053</t>
+          <t>487146</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>98,56%</t>
+          <t>97,28%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>97,53%</t>
+          <t>95,79%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>99,15%</t>
+          <t>98,23%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>2064</t>
+          <t>1094</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>395688</t>
+          <t>963004</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>392566</t>
+          <t>950190</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>398123</t>
+          <t>973139</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>98,05%</t>
+          <t>95,75%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>97,28%</t>
+          <t>94,47%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>98,65%</t>
+          <t>96,75%</t>
         </is>
       </c>
     </row>
@@ -1642,22 +1642,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>907</t>
+          <t>487</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>175561</t>
+          <t>509879</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>175561</t>
+          <t>509879</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>175561</t>
+          <t>509879</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1677,22 +1677,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>1199</t>
+          <t>666</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>227994</t>
+          <t>495906</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>227994</t>
+          <t>495906</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>227994</t>
+          <t>495906</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1712,22 +1712,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>2106</t>
+          <t>1153</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>403555</t>
+          <t>1005786</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>403555</t>
+          <t>1005786</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>403555</t>
+          <t>1005786</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1759,107 +1759,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>308</t>
+          <t>196</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>51791</t>
+          <t>157898</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>46501</t>
+          <t>135978</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>59136</t>
+          <t>183690</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>7,2%</t>
+          <t>7,69%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>6,46%</t>
+          <t>6,62%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>8,22%</t>
+          <t>8,95%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>246</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>35214</t>
+          <t>143170</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>30593</t>
+          <t>126235</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>40170</t>
+          <t>163693</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>4,44%</t>
+          <t>6,51%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>3,85%</t>
+          <t>5,74%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>5,06%</t>
+          <t>7,44%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>526</t>
+          <t>442</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>87004</t>
+          <t>301068</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>79322</t>
+          <t>273027</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>95387</t>
+          <t>328300</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>5,75%</t>
+          <t>7,08%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>5,24%</t>
+          <t>6,42%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>6,3%</t>
+          <t>7,72%</t>
         </is>
       </c>
     </row>
@@ -1872,107 +1872,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>3749</t>
+          <t>1692</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>667990</t>
+          <t>1895061</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>660645</t>
+          <t>1869269</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>673280</t>
+          <t>1916981</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>92,8%</t>
+          <t>92,31%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>91,78%</t>
+          <t>91,05%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>93,54%</t>
+          <t>93,38%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>4239</t>
+          <t>2754</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>758589</t>
+          <t>2056074</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>753633</t>
+          <t>2035551</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>763210</t>
+          <t>2073009</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>95,56%</t>
+          <t>93,49%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>94,94%</t>
+          <t>92,56%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>96,15%</t>
+          <t>94,26%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>7988</t>
+          <t>4446</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>1426580</t>
+          <t>3951135</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>1418197</t>
+          <t>3923903</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>1434262</t>
+          <t>3979176</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>94,25%</t>
+          <t>92,92%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>93,7%</t>
+          <t>92,28%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>94,76%</t>
+          <t>93,58%</t>
         </is>
       </c>
     </row>
@@ -1985,22 +1985,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>4057</t>
+          <t>1888</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>719781</t>
+          <t>2052959</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>719781</t>
+          <t>2052959</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>719781</t>
+          <t>2052959</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2020,22 +2020,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>4457</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>793803</t>
+          <t>2199244</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>793803</t>
+          <t>2199244</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>793803</t>
+          <t>2199244</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2055,22 +2055,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>8514</t>
+          <t>4888</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>1513584</t>
+          <t>4252203</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>1513584</t>
+          <t>4252203</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>1513584</t>
+          <t>4252203</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2156,7 +2156,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para la diabetes en Andalucia (tasa de respuesta: 99,9%)</t>
+          <t>Consumo de medicamentos para la diabetes en C.Valenciana (tasa de respuesta: 99,76%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2341,107 +2341,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>117</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>33427</t>
+          <t>36633</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>24786</t>
+          <t>30278</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>43544</t>
+          <t>44303</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>14,64%</t>
+          <t>16,98%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>10,86%</t>
+          <t>14,03%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>19,07%</t>
+          <t>20,53%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>130</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>74013</t>
+          <t>50163</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>63171</t>
+          <t>41842</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>86148</t>
+          <t>59767</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>18,73%</t>
+          <t>18,33%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>15,99%</t>
+          <t>15,29%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>21,8%</t>
+          <t>21,84%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>247</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>107440</t>
+          <t>86796</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>92868</t>
+          <t>76554</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>121518</t>
+          <t>98400</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>17,23%</t>
+          <t>17,73%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>14,9%</t>
+          <t>15,64%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>19,49%</t>
+          <t>20,1%</t>
         </is>
       </c>
     </row>
@@ -2454,107 +2454,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>436</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>194870</t>
+          <t>179163</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>184753</t>
+          <t>171493</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>203511</t>
+          <t>185518</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>85,36%</t>
+          <t>83,02%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>80,93%</t>
+          <t>79,47%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>89,14%</t>
+          <t>85,97%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>514</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>321077</t>
+          <t>223518</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>308942</t>
+          <t>213914</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>331919</t>
+          <t>231839</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>81,27%</t>
+          <t>81,67%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>78,2%</t>
+          <t>78,16%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>84,01%</t>
+          <t>84,71%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>793</t>
+          <t>950</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>515947</t>
+          <t>402682</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>501869</t>
+          <t>391078</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>530519</t>
+          <t>412924</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>82,77%</t>
+          <t>82,27%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>80,51%</t>
+          <t>79,9%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>85,1%</t>
+          <t>84,36%</t>
         </is>
       </c>
     </row>
@@ -2567,22 +2567,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>553</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>228297</t>
+          <t>215796</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>228297</t>
+          <t>215796</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>228297</t>
+          <t>215796</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -2602,22 +2602,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>695</t>
+          <t>644</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>395090</t>
+          <t>273681</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>395090</t>
+          <t>273681</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>395090</t>
+          <t>273681</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -2637,22 +2637,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>985</t>
+          <t>1197</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>623387</t>
+          <t>489478</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>623387</t>
+          <t>489478</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>623387</t>
+          <t>489478</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -2684,107 +2684,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>153</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>83940</t>
+          <t>56323</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>48702</t>
+          <t>47332</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>110067</t>
+          <t>67164</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,96%</t>
+          <t>6,53%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,46%</t>
+          <t>5,49%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>7,81%</t>
+          <t>7,79%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>102</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>44567</t>
+          <t>46467</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>28294</t>
+          <t>37264</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>58127</t>
+          <t>57107</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,22%</t>
+          <t>5,35%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>2,04%</t>
+          <t>4,29%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>4,19%</t>
+          <t>6,58%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>255</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>128506</t>
+          <t>102790</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>88094</t>
+          <t>90851</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>160102</t>
+          <t>118893</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>4,6%</t>
+          <t>5,94%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>3,15%</t>
+          <t>5,25%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>5,73%</t>
+          <t>6,87%</t>
         </is>
       </c>
     </row>
@@ -2797,107 +2797,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1004</t>
+          <t>1483</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1325453</t>
+          <t>805695</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1299326</t>
+          <t>794854</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1360691</t>
+          <t>814686</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>94,04%</t>
+          <t>93,47%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>92,19%</t>
+          <t>92,21%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>96,54%</t>
+          <t>94,51%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1555</t>
+          <t>1421</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1341244</t>
+          <t>821713</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>1327684</t>
+          <t>811073</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>1357517</t>
+          <t>830916</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>96,78%</t>
+          <t>94,65%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>95,81%</t>
+          <t>93,42%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>97,96%</t>
+          <t>95,71%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>2559</t>
+          <t>2904</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>2666698</t>
+          <t>1627408</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>2635102</t>
+          <t>1611305</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>2707110</t>
+          <t>1639347</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>95,4%</t>
+          <t>94,06%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>94,27%</t>
+          <t>93,13%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>96,85%</t>
+          <t>94,75%</t>
         </is>
       </c>
     </row>
@@ -2910,22 +2910,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1111</t>
+          <t>1636</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1409393</t>
+          <t>862018</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1409393</t>
+          <t>862018</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1409393</t>
+          <t>862018</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -2945,22 +2945,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1639</t>
+          <t>1523</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1385811</t>
+          <t>868180</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1385811</t>
+          <t>868180</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1385811</t>
+          <t>868180</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -2980,22 +2980,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>2750</t>
+          <t>3159</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>2795204</t>
+          <t>1730198</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>2795204</t>
+          <t>1730198</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>2795204</t>
+          <t>1730198</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -3027,72 +3027,72 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>43</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>27202</t>
+          <t>17094</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>19427</t>
+          <t>12391</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>39477</t>
+          <t>23603</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>5,92%</t>
+          <t>4,51%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>4,23%</t>
+          <t>3,27%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>8,59%</t>
+          <t>6,23%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>16</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>11846</t>
+          <t>7657</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>7405</t>
+          <t>4716</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>18326</t>
+          <t>12743</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>2,67%</t>
+          <t>1,84%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>1,67%</t>
+          <t>1,13%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>4,13%</t>
+          <t>3,06%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -3102,32 +3102,32 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>39048</t>
+          <t>24751</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>29405</t>
+          <t>18980</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>50756</t>
+          <t>33319</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>4,32%</t>
+          <t>3,11%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>3,26%</t>
+          <t>2,39%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>5,62%</t>
+          <t>4,19%</t>
         </is>
       </c>
     </row>
@@ -3140,107 +3140,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>450</t>
+          <t>613</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>432599</t>
+          <t>361634</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>420324</t>
+          <t>355125</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>440374</t>
+          <t>366337</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>94,08%</t>
+          <t>95,49%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>91,41%</t>
+          <t>93,77%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>95,77%</t>
+          <t>96,73%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>644</t>
+          <t>684</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>431528</t>
+          <t>409218</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>425048</t>
+          <t>404132</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>435969</t>
+          <t>412159</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>97,33%</t>
+          <t>98,16%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>95,87%</t>
+          <t>96,94%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>98,33%</t>
+          <t>98,87%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>1094</t>
+          <t>1297</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>864127</t>
+          <t>770852</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>852419</t>
+          <t>762284</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>873770</t>
+          <t>776623</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>95,68%</t>
+          <t>96,89%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>94,38%</t>
+          <t>95,81%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>96,74%</t>
+          <t>97,61%</t>
         </is>
       </c>
     </row>
@@ -3253,22 +3253,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>487</t>
+          <t>656</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>459801</t>
+          <t>378728</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>459801</t>
+          <t>378728</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>459801</t>
+          <t>378728</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -3288,22 +3288,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>666</t>
+          <t>700</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>443374</t>
+          <t>416875</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>443374</t>
+          <t>416875</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>443374</t>
+          <t>416875</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -3323,22 +3323,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>1153</t>
+          <t>1356</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>903175</t>
+          <t>795603</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>903175</t>
+          <t>795603</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>903175</t>
+          <t>795603</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -3370,107 +3370,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>313</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>144569</t>
+          <t>110050</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>95588</t>
+          <t>97378</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>174254</t>
+          <t>123871</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>6,89%</t>
+          <t>7,56%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,56%</t>
+          <t>6,69%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>8,31%</t>
+          <t>8,5%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>248</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>130426</t>
+          <t>104287</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>98522</t>
+          <t>91199</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>153891</t>
+          <t>118523</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>5,86%</t>
+          <t>6,69%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>4,43%</t>
+          <t>5,85%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>6,92%</t>
+          <t>7,6%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>442</t>
+          <t>561</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>274995</t>
+          <t>214337</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>221712</t>
+          <t>196036</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>315558</t>
+          <t>233038</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>6,36%</t>
+          <t>7,11%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>5,13%</t>
+          <t>6,5%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>7,3%</t>
+          <t>7,73%</t>
         </is>
       </c>
     </row>
@@ -3483,107 +3483,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1692</t>
+          <t>2532</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>1952922</t>
+          <t>1346492</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1923237</t>
+          <t>1332671</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>2001903</t>
+          <t>1359164</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>93,11%</t>
+          <t>92,44%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>91,69%</t>
+          <t>91,5%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>95,44%</t>
+          <t>93,31%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>2754</t>
+          <t>2619</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>2093850</t>
+          <t>1454450</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>2070385</t>
+          <t>1440214</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>2125754</t>
+          <t>1467538</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>94,14%</t>
+          <t>93,31%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>93,08%</t>
+          <t>92,4%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>95,57%</t>
+          <t>94,15%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>4446</t>
+          <t>5151</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>4046771</t>
+          <t>2800942</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>4006208</t>
+          <t>2782241</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>4100054</t>
+          <t>2819243</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>93,64%</t>
+          <t>92,89%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>92,7%</t>
+          <t>92,27%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>94,87%</t>
+          <t>93,5%</t>
         </is>
       </c>
     </row>
@@ -3596,22 +3596,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1888</t>
+          <t>2845</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2097491</t>
+          <t>1456542</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2097491</t>
+          <t>1456542</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2097491</t>
+          <t>1456542</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -3631,22 +3631,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>2867</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>2224276</t>
+          <t>1558737</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>2224276</t>
+          <t>1558737</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>2224276</t>
+          <t>1558737</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -3666,22 +3666,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>4888</t>
+          <t>5712</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>4321766</t>
+          <t>3015279</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>4321766</t>
+          <t>3015279</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>4321766</t>
+          <t>3015279</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -3767,7 +3767,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para la diabetes en C.Valenciana (tasa de respuesta: 99,76%)</t>
+          <t>Consumo de medicamentos para la diabetes en País Vasco (tasa de respuesta: 99,45%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3952,107 +3952,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>78</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>36633</t>
+          <t>12881</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>30278</t>
+          <t>10413</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>44303</t>
+          <t>15820</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>16,98%</t>
+          <t>15,61%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>14,03%</t>
+          <t>12,62%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>20,53%</t>
+          <t>19,17%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>97</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>50163</t>
+          <t>14907</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>41842</t>
+          <t>12135</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>59767</t>
+          <t>18318</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>18,33%</t>
+          <t>12,27%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>15,29%</t>
+          <t>9,99%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>21,84%</t>
+          <t>15,08%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>175</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>86796</t>
+          <t>27788</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>76554</t>
+          <t>24059</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>98400</t>
+          <t>32273</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>17,73%</t>
+          <t>13,62%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>15,64%</t>
+          <t>11,79%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>20,1%</t>
+          <t>15,82%</t>
         </is>
       </c>
     </row>
@@ -4065,107 +4065,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>436</t>
+          <t>425</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>179163</t>
+          <t>69661</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>171493</t>
+          <t>66722</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>185518</t>
+          <t>72129</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>83,02%</t>
+          <t>84,39%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>79,47%</t>
+          <t>80,83%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>85,97%</t>
+          <t>87,38%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>514</t>
+          <t>658</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>223518</t>
+          <t>106545</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>213914</t>
+          <t>103134</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>231839</t>
+          <t>109317</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>81,67%</t>
+          <t>87,73%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>78,16%</t>
+          <t>84,92%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>84,71%</t>
+          <t>90,01%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>950</t>
+          <t>1083</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>402682</t>
+          <t>176206</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>391078</t>
+          <t>171721</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>412924</t>
+          <t>179935</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>82,27%</t>
+          <t>86,38%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>79,9%</t>
+          <t>84,18%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>84,36%</t>
+          <t>88,21%</t>
         </is>
       </c>
     </row>
@@ -4178,22 +4178,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>553</t>
+          <t>503</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>215796</t>
+          <t>82542</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>215796</t>
+          <t>82542</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>215796</t>
+          <t>82542</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -4213,22 +4213,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>644</t>
+          <t>755</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>273681</t>
+          <t>121452</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>273681</t>
+          <t>121452</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>273681</t>
+          <t>121452</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -4248,22 +4248,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>1197</t>
+          <t>1258</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>489478</t>
+          <t>203994</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>489478</t>
+          <t>203994</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>489478</t>
+          <t>203994</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -4295,107 +4295,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>206</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>56323</t>
+          <t>34332</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>47332</t>
+          <t>29575</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>67164</t>
+          <t>39476</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>6,53%</t>
+          <t>7,44%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,49%</t>
+          <t>6,41%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>7,79%</t>
+          <t>8,55%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>103</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>46467</t>
+          <t>17018</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>37264</t>
+          <t>13637</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>57107</t>
+          <t>20673</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>5,35%</t>
+          <t>3,83%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>4,29%</t>
+          <t>3,07%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>6,58%</t>
+          <t>4,65%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>309</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>102790</t>
+          <t>51350</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>90851</t>
+          <t>45411</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>118893</t>
+          <t>57677</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>5,94%</t>
+          <t>5,67%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>5,25%</t>
+          <t>5,01%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>6,87%</t>
+          <t>6,37%</t>
         </is>
       </c>
     </row>
@@ -4408,107 +4408,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1483</t>
+          <t>2441</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>805695</t>
+          <t>427347</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>794854</t>
+          <t>422203</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>814686</t>
+          <t>432104</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>93,47%</t>
+          <t>92,56%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>92,21%</t>
+          <t>91,45%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>94,51%</t>
+          <t>93,59%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1421</t>
+          <t>2400</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>821713</t>
+          <t>427339</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>811073</t>
+          <t>423684</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>830916</t>
+          <t>430720</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>94,65%</t>
+          <t>96,17%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>93,42%</t>
+          <t>95,35%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>95,71%</t>
+          <t>96,93%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>2904</t>
+          <t>4841</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>1627408</t>
+          <t>854685</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>1611305</t>
+          <t>848358</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>1639347</t>
+          <t>860624</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>94,06%</t>
+          <t>94,33%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>93,13%</t>
+          <t>93,63%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>94,75%</t>
+          <t>94,99%</t>
         </is>
       </c>
     </row>
@@ -4521,22 +4521,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1636</t>
+          <t>2647</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>862018</t>
+          <t>461679</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>862018</t>
+          <t>461679</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>862018</t>
+          <t>461679</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -4556,22 +4556,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1523</t>
+          <t>2503</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>868180</t>
+          <t>444357</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>868180</t>
+          <t>444357</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>868180</t>
+          <t>444357</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -4591,22 +4591,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>3159</t>
+          <t>5150</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>1730198</t>
+          <t>906035</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>1730198</t>
+          <t>906035</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>1730198</t>
+          <t>906035</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -4638,107 +4638,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>24</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>17094</t>
+          <t>4578</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>12391</t>
+          <t>2879</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>23603</t>
+          <t>7052</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>4,51%</t>
+          <t>2,61%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>3,27%</t>
+          <t>1,64%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>6,23%</t>
+          <t>4,02%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>18</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>7657</t>
+          <t>3289</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>4716</t>
+          <t>1941</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>12743</t>
+          <t>5629</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>1,84%</t>
+          <t>1,44%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>1,13%</t>
+          <t>0,85%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>3,06%</t>
+          <t>2,47%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>42</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>24751</t>
+          <t>7867</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>18980</t>
+          <t>5432</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>33319</t>
+          <t>10989</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>3,11%</t>
+          <t>1,95%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>2,39%</t>
+          <t>1,35%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>4,19%</t>
+          <t>2,72%</t>
         </is>
       </c>
     </row>
@@ -4751,107 +4751,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>613</t>
+          <t>883</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>361634</t>
+          <t>170983</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>355125</t>
+          <t>168509</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>366337</t>
+          <t>172682</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>95,49%</t>
+          <t>97,39%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>93,77%</t>
+          <t>95,98%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>96,73%</t>
+          <t>98,36%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>684</t>
+          <t>1181</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>409218</t>
+          <t>224705</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>404132</t>
+          <t>222365</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>412159</t>
+          <t>226053</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>98,16%</t>
+          <t>98,56%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>96,94%</t>
+          <t>97,53%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>98,87%</t>
+          <t>99,15%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>1297</t>
+          <t>2064</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>770852</t>
+          <t>395688</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>762284</t>
+          <t>392566</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>776623</t>
+          <t>398123</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>96,89%</t>
+          <t>98,05%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>95,81%</t>
+          <t>97,28%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>97,61%</t>
+          <t>98,65%</t>
         </is>
       </c>
     </row>
@@ -4864,22 +4864,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>656</t>
+          <t>907</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>378728</t>
+          <t>175561</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>378728</t>
+          <t>175561</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>378728</t>
+          <t>175561</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -4899,22 +4899,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>700</t>
+          <t>1199</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>416875</t>
+          <t>227994</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>416875</t>
+          <t>227994</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>416875</t>
+          <t>227994</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -4934,22 +4934,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>1356</t>
+          <t>2106</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>795603</t>
+          <t>403555</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>795603</t>
+          <t>403555</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>795603</t>
+          <t>403555</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -4981,107 +4981,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>308</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>110050</t>
+          <t>51791</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>97378</t>
+          <t>46501</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>123871</t>
+          <t>59136</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>7,56%</t>
+          <t>7,2%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>6,69%</t>
+          <t>6,46%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>8,5%</t>
+          <t>8,22%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>218</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>104287</t>
+          <t>35214</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>91199</t>
+          <t>30593</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>118523</t>
+          <t>40170</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>6,69%</t>
+          <t>4,44%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>5,85%</t>
+          <t>3,85%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>7,6%</t>
+          <t>5,06%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>561</t>
+          <t>526</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>214337</t>
+          <t>87004</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>196036</t>
+          <t>79322</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>233038</t>
+          <t>95387</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>7,11%</t>
+          <t>5,75%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>6,5%</t>
+          <t>5,24%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>7,73%</t>
+          <t>6,3%</t>
         </is>
       </c>
     </row>
@@ -5094,107 +5094,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2532</t>
+          <t>3749</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>1346492</t>
+          <t>667990</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1332671</t>
+          <t>660645</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>1359164</t>
+          <t>673280</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>92,44%</t>
+          <t>92,8%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>91,5%</t>
+          <t>91,78%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>93,31%</t>
+          <t>93,54%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>2619</t>
+          <t>4239</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>1454450</t>
+          <t>758589</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>1440214</t>
+          <t>753633</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>1467538</t>
+          <t>763210</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>93,31%</t>
+          <t>95,56%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>92,4%</t>
+          <t>94,94%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>94,15%</t>
+          <t>96,15%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>5151</t>
+          <t>7988</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>2800942</t>
+          <t>1426580</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>2782241</t>
+          <t>1418197</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>2819243</t>
+          <t>1434262</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>92,89%</t>
+          <t>94,25%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>92,27%</t>
+          <t>93,7%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>93,5%</t>
+          <t>94,76%</t>
         </is>
       </c>
     </row>
@@ -5207,22 +5207,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2845</t>
+          <t>4057</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1456542</t>
+          <t>719781</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1456542</t>
+          <t>719781</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1456542</t>
+          <t>719781</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -5242,22 +5242,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>2867</t>
+          <t>4457</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>1558737</t>
+          <t>793803</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>1558737</t>
+          <t>793803</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>1558737</t>
+          <t>793803</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -5277,22 +5277,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>5712</t>
+          <t>8514</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>3015279</t>
+          <t>1513584</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>3015279</t>
+          <t>1513584</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>3015279</t>
+          <t>1513584</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
